--- a/medicine/Sexualité et sexologie/Joy_chez_les_pharaons/Joy_chez_les_pharaons.xlsx
+++ b/medicine/Sexualité et sexologie/Joy_chez_les_pharaons/Joy_chez_les_pharaons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Joy chez les pharaons est un film érotique français réalisé par Jean-Pierre Floran et sorti en 1993.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joy travaille comme top model pour les photographes en vogue. Elle est très demandée et très appréciée. Le cinéma lui fait les yeux doux. Un producteur lui propose de jouer Cléopâtre dans un péplum érotique. 
 Elle accepte...
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Joy chez les pharaons
 Réalisation : Jean-Pierre Floran
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Zara Whites : Joy
 Philippe Dumond : Walter
